--- a/base_normalizada.xlsx
+++ b/base_normalizada.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DW84\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F9177D-AD17-4F69-8C85-18E95A67AF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Nº</t>
   </si>
@@ -53,16 +36,16 @@
     <t>Identificação</t>
   </si>
   <si>
-    <t>Data_Inicio</t>
-  </si>
-  <si>
-    <t>Data_Fim</t>
+    <t xml:space="preserve">Data Fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Início</t>
   </si>
   <si>
     <t>Causa</t>
   </si>
   <si>
-    <t>Tempo_Parada_h</t>
+    <t xml:space="preserve">Tempo de Parada (h)</t>
   </si>
   <si>
     <t>Status</t>
@@ -71,25 +54,25 @@
     <t>VIX</t>
   </si>
   <si>
-    <t>AGR Cabiúnas</t>
-  </si>
-  <si>
-    <t>Paulo César</t>
-  </si>
-  <si>
-    <t>Empilhadeira 2.5 ton</t>
-  </si>
-  <si>
-    <t>EGC 280</t>
-  </si>
-  <si>
-    <t>2025-05-05 09:00:00</t>
-  </si>
-  <si>
-    <t>2025-05-05 15:00:00</t>
-  </si>
-  <si>
-    <t>Freio de mão travado</t>
+    <t xml:space="preserve">AGR Cabiúnas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo César</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empilhadeira 2.5 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGC 280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-05 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-05 15:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freio de mão travado</t>
   </si>
   <si>
     <t>Fechado</t>
@@ -98,52 +81,52 @@
     <t>Jocimar</t>
   </si>
   <si>
-    <t>Empilhadeira 4 ton</t>
-  </si>
-  <si>
-    <t>EGC 401</t>
-  </si>
-  <si>
-    <t>2025-05-12 08:30:00</t>
-  </si>
-  <si>
-    <t>2025-05-13 09:50:00</t>
-  </si>
-  <si>
-    <t>Cabo de bateria com folga</t>
-  </si>
-  <si>
-    <t>2025-05-16 15:23:00</t>
-  </si>
-  <si>
-    <t>2025-05-20 00:00:00</t>
-  </si>
-  <si>
-    <t>Manutenção preventiva</t>
-  </si>
-  <si>
-    <t>Edson Matias</t>
-  </si>
-  <si>
-    <t>EGC 281</t>
-  </si>
-  <si>
-    <t>2025-05-20 15:23:00</t>
-  </si>
-  <si>
-    <t>2025-05-20 16:15:00</t>
-  </si>
-  <si>
-    <t>Equipamento não engatava marcha ré</t>
-  </si>
-  <si>
-    <t>2025-06-02 14:12:00</t>
-  </si>
-  <si>
-    <t>2025-06-03 00:00:00</t>
-  </si>
-  <si>
-    <t>Pátio de Valorização de Resíduos</t>
+    <t xml:space="preserve">Empilhadeira 4 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGC 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-12 08:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-13 09:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo de bateria com folga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-16 15:23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutenção preventiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson Matias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGC 281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-20 15:23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-20 16:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipamento não engatava marcha ré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-02 14:12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pátio de Valorização de Resíduos</t>
   </si>
   <si>
     <t>Retroescavadeira</t>
@@ -152,22 +135,22 @@
     <t>MMG2401</t>
   </si>
   <si>
-    <t>2025-06-06 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-06-19 08:43:00</t>
-  </si>
-  <si>
-    <t>Falha mecânica; encaminhamento para manutenção</t>
-  </si>
-  <si>
-    <t>2025-06-20 10:00:00</t>
-  </si>
-  <si>
-    <t>2025-06-21 17:30:00</t>
-  </si>
-  <si>
-    <t>Afrouxamento de parafusos; pneu furado</t>
+    <t xml:space="preserve">2025-06-06 08:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-19 08:43:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falha mecânica; encaminhamento para manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-20 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-21 17:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrouxamento de parafusos; pneu furado</t>
   </si>
   <si>
     <t>Manipuladora</t>
@@ -176,31 +159,31 @@
     <t>MMG2403</t>
   </si>
   <si>
-    <t>2025-06-23 00:00:00</t>
-  </si>
-  <si>
-    <t>Lavagem e manutenção preventiva</t>
+    <t xml:space="preserve">2025-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavagem e manutenção preventiva</t>
   </si>
   <si>
     <t>MMG2400</t>
   </si>
   <si>
-    <t>2025-06-06 13:45:00</t>
-  </si>
-  <si>
-    <t>Aperto de parafuso na garra</t>
+    <t xml:space="preserve">2025-06-06 13:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aperto de parafuso na garra</t>
   </si>
   <si>
     <t>MMG2404</t>
   </si>
   <si>
-    <t>2025-06-16 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-06-17 14:54:00</t>
-  </si>
-  <si>
-    <t>Substituição de peças</t>
+    <t xml:space="preserve">2025-06-16 08:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-17 14:54:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituição de peças</t>
   </si>
   <si>
     <t>TIMS</t>
@@ -209,122 +192,114 @@
     <t>Empilhadeira</t>
   </si>
   <si>
-    <t>EGC 411</t>
-  </si>
-  <si>
-    <t>2025-06-18 09:00:00</t>
-  </si>
-  <si>
-    <t>2025-06-23 09:00:00</t>
-  </si>
-  <si>
-    <t>Problema no acelerador</t>
-  </si>
-  <si>
-    <t>2025-06-25 10:00:00</t>
-  </si>
-  <si>
-    <t>Aperto de parafusos; manutenção preventiva</t>
-  </si>
-  <si>
-    <t>2025-07-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2025-07-03 09:39:00</t>
-  </si>
-  <si>
-    <t>Substituição de solenoide</t>
-  </si>
-  <si>
-    <t>2025-07-21 10:50:00</t>
-  </si>
-  <si>
-    <t>Vazamento de óleo durante carregamento; acionado ramal de emergência</t>
+    <t xml:space="preserve">EGC 411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-18 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-23 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema no acelerador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-25 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aperto de parafusos; manutenção preventiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-03 09:39:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituição de solenoide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-21 10:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vazamento de óleo durante carregamento; acionado ramal de emergência</t>
   </si>
   <si>
     <t>Aberto</t>
   </si>
   <si>
-    <t>2025-08-12 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-08-26 11:18:00</t>
-  </si>
-  <si>
-    <t>Substituição de mangueira hidráulica</t>
-  </si>
-  <si>
-    <t>Carreta dedicada</t>
-  </si>
-  <si>
-    <t>FROTA 257</t>
-  </si>
-  <si>
-    <t>2025-08-12 13:30:00</t>
-  </si>
-  <si>
-    <t>2025-08-14 07:00:00</t>
-  </si>
-  <si>
-    <t>Problema no ar condicionado (impactou carregamentos de 12 a 14/08)</t>
-  </si>
-  <si>
-    <t>2025-08-15 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-08-18 18:00:00</t>
-  </si>
-  <si>
-    <t>Mau funcionamento do aquecedor; troca da garra programada</t>
-  </si>
-  <si>
-    <t>Área 400 Depósito 421</t>
-  </si>
-  <si>
-    <t>Empilhadeira elétrica</t>
-  </si>
-  <si>
-    <t>EMP 202</t>
-  </si>
-  <si>
-    <t>2025-08-19 09:00:00</t>
-  </si>
-  <si>
-    <t>Quebra de parafuso da roda</t>
-  </si>
-  <si>
-    <t>2025-09-02 09:00:00</t>
-  </si>
-  <si>
-    <t>Problemas no giro</t>
+    <t xml:space="preserve">2025-08-12 08:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-26 11:18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituição de mangueira hidráulica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carreta dedicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROTA 257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-12 13:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-14 07:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema no ar condicionado (impactou carregamentos de 12 a 14/08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-15 08:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-18 18:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mau funcionamento do aquecedor; troca da garra programada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área 400 Depósito 421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empilhadeira elétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-19 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quebra de parafuso da roda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-02 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemas no giro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,11 +312,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -356,25 +331,25 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -386,7 +361,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabela1" ref="$A$1:$K$21">
+  <autoFilter ref="$A$1:$K$21"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nº"/>
+    <tableColumn id="2" name="Empresa"/>
+    <tableColumn id="3" name="Local"/>
+    <tableColumn id="4" name="Operador"/>
+    <tableColumn id="5" name="Equipamento"/>
+    <tableColumn id="6" name="Identificação"/>
+    <tableColumn id="7" name="Data Fim"/>
+    <tableColumn id="8" name="Data Início"/>
+    <tableColumn id="9" name="Causa"/>
+    <tableColumn id="10" name="Tempo de Parada (h)"/>
+    <tableColumn id="11" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -432,13 +427,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -466,13 +461,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -669,30 +664,249 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="5.421875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="10.57421875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="30.5703125"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="12.5703125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="20.140625"/>
+    <col customWidth="1" min="6" max="6" width="16.8515625"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="18.5703125"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="68.28515625"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="18.5703125"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="8.57421875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -756,14 +970,14 @@
         <v>18</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J20" si="0">ROUND((H2-G2)*24, 2)</f>
+        <f t="shared" ref="J2:J19" si="0">ROUND((H2-G2)*24, 2)</f>
         <v>6</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -793,13 +1007,13 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>25.33</v>
+        <v>25.329999999999998</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -829,13 +1043,13 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>80.62</v>
+        <v>80.620000000000005</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -871,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -904,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -937,7 +1151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -970,7 +1184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1003,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1036,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1063,13 +1277,13 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>30.9</v>
+        <v>30.899999999999999</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1102,7 +1316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1135,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1162,13 +1376,13 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>57.65</v>
+        <v>57.649999999999999</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1201,7 +1415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1223,15 +1437,12 @@
       <c r="I16" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>-1100626.83</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1258,13 +1469,13 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>339.3</v>
+        <v>339.30000000000001</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1297,7 +1508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1330,7 +1541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1352,15 +1563,12 @@
       <c r="I20" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>-1101321</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1394,16 +1602,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{140b9f7d-8e3a-482f-9702-4b7ffc40985a}" enabled="1" method="Privileged" siteId="{5b6f6241-9a57-4be4-8e50-1dfa72e79a57}" contentBits="2" removed="0"/>
-</clbl:labelList>
 </file>